--- a/xCodedUIFramework-master/xCodedUI.AppFramework/Data/Excel.xlsx
+++ b/xCodedUIFramework-master/xCodedUI.AppFramework/Data/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="5772" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TC312" sheetId="2" r:id="rId1"/>
@@ -105,12 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -423,9 +420,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -460,9 +457,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -489,14 +486,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10024</v>
       </c>
@@ -511,15 +508,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -541,7 +538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -552,12 +549,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
-        <v>34.56</v>
+      <c r="B4" s="1">
+        <v>-1778</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -576,9 +573,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -607,9 +604,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -638,9 +635,9 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -669,9 +666,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -700,9 +697,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
